--- a/bug_report/BugReport.xlsx
+++ b/bug_report/BugReport.xlsx
@@ -262,6 +262,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -280,6 +283,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -291,87 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:L21"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,433 +703,433 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="39" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="22" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="32"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="32"/>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="35"/>
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1147,18 +1147,18 @@
       <c r="G22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1" t="s">
         <v>10</v>
@@ -1166,109 +1166,101 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="36"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="12" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="12" t="s">
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R23" s="14"/>
+      <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="17"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="17"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="32"/>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="20"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="A2:B21"/>
-    <mergeCell ref="C2:F21"/>
-    <mergeCell ref="G2:L21"/>
-    <mergeCell ref="M2:R21"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="A23:B26"/>
     <mergeCell ref="C23:D26"/>
@@ -1283,6 +1275,14 @@
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A2:B21"/>
+    <mergeCell ref="C2:F21"/>
+    <mergeCell ref="G2:L21"/>
+    <mergeCell ref="M2:R21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
